--- a/cea/databases/archetypes/construction_properties_SIN_source.xlsx
+++ b/cea/databases/archetypes/construction_properties_SIN_source.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
   <si>
     <t>Code</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>Assumption</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S037877881630442X</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Average NTU</t>
   </si>
 </sst>
 </file>
@@ -748,7 +763,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,6 +810,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1123,7 +1139,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:G24"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1203,9 @@
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
         <v>0</v>
@@ -1210,7 +1228,9 @@
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <v>0</v>
@@ -1232,7 +1252,9 @@
       <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <v>0</v>
@@ -1254,7 +1276,9 @@
       <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1284,7 +1308,9 @@
       <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>0</v>
@@ -1308,7 +1334,9 @@
       <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>0</v>
@@ -1330,7 +1358,9 @@
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <v>0</v>
@@ -1354,7 +1384,9 @@
       <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>0</v>
@@ -1376,7 +1408,9 @@
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <v>0</v>
@@ -1400,7 +1434,9 @@
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>0</v>
@@ -1422,7 +1458,9 @@
       <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>0</v>
@@ -1446,7 +1484,9 @@
       <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <v>0</v>
@@ -1468,7 +1508,9 @@
       <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <v>0</v>
@@ -1490,7 +1532,9 @@
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>0</v>
@@ -1512,7 +1556,9 @@
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>0</v>
@@ -1534,7 +1580,9 @@
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
@@ -1560,7 +1608,9 @@
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
         <v>0</v>
@@ -1584,7 +1634,9 @@
       <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
         <v>0</v>
@@ -1629,6 +1681,22 @@
       </c>
       <c r="B24" s="17" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="1048576" spans="10:10" x14ac:dyDescent="0.25">

--- a/cea/databases/archetypes/construction_properties_SIN_source.xlsx
+++ b/cea/databases/archetypes/construction_properties_SIN_source.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16140" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="11115" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="73">
   <si>
     <t>Code</t>
   </si>
@@ -228,6 +228,27 @@
   </si>
   <si>
     <t>Average NTU</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/doi/10.1002/er.4440170909/epdf</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0196890410005388</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0378778809002564</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>Archetypes CH</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S092658050700091X</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -1135,11 +1156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,16 +1227,24 @@
       <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
       <c r="J2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="N2" s="12"/>
     </row>
@@ -1231,16 +1260,24 @@
       <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
       <c r="J3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1255,16 +1292,24 @@
       <c r="E4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
       <c r="J4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1311,12 +1356,18 @@
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1337,16 +1388,24 @@
       <c r="E7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1361,12 +1420,18 @@
       <c r="E8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
       <c r="J8" s="3" t="s">
         <v>58</v>
       </c>
@@ -1387,16 +1452,24 @@
       <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
       <c r="J9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1411,12 +1484,18 @@
       <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
       <c r="J10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1437,16 +1516,24 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
       <c r="J11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1461,12 +1548,18 @@
       <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1487,16 +1580,24 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1511,16 +1612,24 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
       <c r="J14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1535,16 +1644,24 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>9</v>
+      </c>
       <c r="J15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1559,16 +1676,24 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>9</v>
+      </c>
       <c r="J16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1584,13 +1709,17 @@
         <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
       <c r="J17" s="3" t="s">
         <v>58</v>
       </c>
@@ -1611,12 +1740,18 @@
       <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
       <c r="J18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1637,12 +1772,18 @@
       <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
       <c r="J19" s="3" t="s">
         <v>58</v>
       </c>
@@ -1699,27 +1840,71 @@
         <v>65</v>
       </c>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>7</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>8</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="1048576" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J1048576" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B29" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:G24"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,10 +1961,18 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1793,10 +1986,18 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1810,10 +2011,18 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1827,10 +2036,18 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1844,10 +2061,18 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1861,10 +2086,18 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1878,10 +2111,18 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1895,10 +2136,18 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1912,10 +2161,18 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1929,10 +2186,18 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1946,10 +2211,18 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1963,10 +2236,18 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1980,10 +2261,18 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1997,10 +2286,18 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -2014,10 +2311,18 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -2031,10 +2336,18 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -2048,10 +2361,18 @@
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -2065,10 +2386,18 @@
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -2102,21 +2431,81 @@
         <v>57</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>7</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>8</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B29" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,194 +2543,473 @@
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>7</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>8</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B29" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,332 +3063,675 @@
         <v>18</v>
       </c>
       <c r="B2" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9">
-        <v>80</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9">
+        <v>9</v>
+      </c>
+      <c r="I3" s="9">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9">
-        <v>80</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="9">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9">
+        <v>9</v>
+      </c>
+      <c r="I4" s="9">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9">
-        <v>80</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9">
+        <v>9</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9">
-        <v>90</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9">
-        <v>80</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9">
+        <v>9</v>
+      </c>
+      <c r="I7" s="9">
+        <v>9</v>
+      </c>
+      <c r="J7" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="9">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9">
-        <v>85</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>9</v>
+      </c>
+      <c r="H8" s="9">
+        <v>9</v>
+      </c>
+      <c r="I8" s="9">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="9">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9">
-        <v>170</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="9">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9">
+        <v>9</v>
+      </c>
+      <c r="H9" s="9">
+        <v>9</v>
+      </c>
+      <c r="I9" s="9">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9">
-        <v>80</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9">
+        <v>9</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9">
-        <v>80</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9">
+        <v>9</v>
+      </c>
+      <c r="I11" s="9">
+        <v>9</v>
+      </c>
+      <c r="J11" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="9">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
-        <v>255</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="9">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9</v>
+      </c>
+      <c r="J12" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9">
-        <v>80</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9">
+        <v>9</v>
+      </c>
+      <c r="F13" s="9">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9">
+        <v>9</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="10">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9">
+        <v>9</v>
+      </c>
+      <c r="I14" s="9">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>9</v>
+      </c>
+      <c r="G15" s="9">
+        <v>9</v>
+      </c>
+      <c r="H15" s="9">
+        <v>9</v>
+      </c>
+      <c r="I15" s="9">
+        <v>9</v>
+      </c>
+      <c r="J15" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="9">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9">
+        <v>9</v>
+      </c>
+      <c r="G16" s="9">
+        <v>9</v>
+      </c>
+      <c r="H16" s="9">
+        <v>9</v>
+      </c>
+      <c r="I16" s="9">
+        <v>9</v>
+      </c>
+      <c r="J16" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="9">
-        <f>B11</f>
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9">
-        <f>C11</f>
-        <v>80</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9">
+        <v>9</v>
+      </c>
+      <c r="H17" s="9">
+        <v>9</v>
+      </c>
+      <c r="I17" s="9">
+        <v>9</v>
+      </c>
+      <c r="J17" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="9">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9">
-        <v>80</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="9">
+        <v>9</v>
+      </c>
+      <c r="E18" s="9">
+        <v>9</v>
+      </c>
+      <c r="F18" s="9">
+        <v>9</v>
+      </c>
+      <c r="G18" s="9">
+        <v>9</v>
+      </c>
+      <c r="H18" s="9">
+        <v>9</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="9">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9">
+        <v>9</v>
+      </c>
+      <c r="F19" s="9">
+        <v>9</v>
+      </c>
+      <c r="G19" s="9">
+        <v>9</v>
+      </c>
+      <c r="H19" s="9">
+        <v>9</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>7</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>8</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="9">
-        <v>80</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B29" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/cea/databases/archetypes/construction_properties_SIN_source.xlsx
+++ b/cea/databases/archetypes/construction_properties_SIN_source.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="11115" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="11115" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -1156,11 +1156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:B31"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1245,9 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
       <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1278,7 +1280,9 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1310,7 +1314,9 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1342,7 +1348,9 @@
       <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1374,7 +1382,9 @@
       <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1406,7 +1416,9 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1438,7 +1450,9 @@
       <c r="K8" s="3">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1470,7 +1484,9 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1502,7 +1518,9 @@
       <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1534,7 +1552,9 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1566,7 +1586,9 @@
       <c r="K12" s="3">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1598,7 +1620,9 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1630,7 +1654,9 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1662,7 +1688,9 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1694,7 +1722,9 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1726,7 +1756,9 @@
       <c r="K17" s="3">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -1758,7 +1790,9 @@
       <c r="K18" s="3">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -1790,7 +1824,9 @@
       <c r="K19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -3008,7 +3044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:B31"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/archetypes/construction_properties_SIN_source.xlsx
+++ b/cea/databases/archetypes/construction_properties_SIN_source.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="11115" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="11115" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="73">
   <si>
     <t>Code</t>
   </si>
@@ -1156,11 +1156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L19"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,8 +1219,12 @@
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
@@ -1254,8 +1258,12 @@
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1288,8 +1296,12 @@
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
@@ -1322,8 +1334,12 @@
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
@@ -1356,8 +1372,12 @@
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1390,8 +1410,12 @@
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1424,8 +1448,12 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
@@ -1458,8 +1486,12 @@
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
@@ -1492,8 +1524,12 @@
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1526,8 +1562,12 @@
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1560,8 +1600,12 @@
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1594,8 +1638,12 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1628,8 +1676,12 @@
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1662,8 +1714,12 @@
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1696,8 +1752,12 @@
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1730,8 +1790,12 @@
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1764,8 +1828,12 @@
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1798,8 +1866,12 @@
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1936,11 +2008,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:B31"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,8 +2061,12 @@
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2014,8 +2090,12 @@
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
@@ -2039,8 +2119,12 @@
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
@@ -2064,8 +2148,12 @@
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
@@ -2089,8 +2177,12 @@
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
@@ -2114,8 +2206,12 @@
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2139,8 +2235,12 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
@@ -2164,8 +2264,12 @@
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
@@ -2189,8 +2293,12 @@
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2322,12 @@
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
@@ -2239,8 +2351,12 @@
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
@@ -2264,8 +2380,12 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
@@ -2289,8 +2409,12 @@
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
@@ -2314,8 +2438,12 @@
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2467,12 @@
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2364,8 +2496,12 @@
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
@@ -2389,8 +2525,12 @@
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
@@ -2414,8 +2554,12 @@
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
       </c>

--- a/cea/databases/archetypes/construction_properties_SIN_source.xlsx
+++ b/cea/databases/archetypes/construction_properties_SIN_source.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\CEAforArcGIS\cea\databases\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/C/Users/User/Documents/GitHub/CEAforArcGIS/cea/databases/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14370" windowHeight="11115" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId3"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="74">
   <si>
     <t>Code</t>
   </si>
@@ -249,12 +249,15 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Qhpro_Wm2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1156,28 +1159,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>55</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>62</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>64</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>7</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>9</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>72</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1048576" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1048576" s="3"/>
     </row>
   </sheetData>
@@ -2008,27 +2011,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="14" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.1640625" style="4"/>
+    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>52</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>54</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>55</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>62</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>64</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>7</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>9</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>72</v>
       </c>
@@ -2688,18 +2691,18 @@
       <selection activeCell="A21" sqref="A21:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2919,7 +2922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -3088,7 +3091,7 @@
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>52</v>
       </c>
@@ -3097,7 +3100,7 @@
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>54</v>
       </c>
@@ -3106,7 +3109,7 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>55</v>
       </c>
@@ -3115,7 +3118,7 @@
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>62</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>64</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>7</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>9</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>72</v>
       </c>
@@ -3186,27 +3189,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3237,8 +3240,11 @@
       <c r="J1" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -3269,8 +3275,11 @@
       <c r="J2" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -3301,8 +3310,11 @@
       <c r="J3" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -3333,8 +3345,11 @@
       <c r="J4" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -3365,8 +3380,11 @@
       <c r="J5" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -3397,8 +3415,11 @@
       <c r="J6" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -3429,8 +3450,11 @@
       <c r="J7" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -3461,8 +3485,11 @@
       <c r="J8" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -3493,8 +3520,11 @@
       <c r="J9" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -3525,8 +3555,11 @@
       <c r="J10" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -3557,8 +3590,11 @@
       <c r="J11" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -3589,8 +3625,11 @@
       <c r="J12" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
@@ -3621,8 +3660,11 @@
       <c r="J13" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -3653,8 +3695,11 @@
       <c r="J14" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -3685,8 +3730,11 @@
       <c r="J15" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -3717,8 +3765,11 @@
       <c r="J16" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -3749,8 +3800,11 @@
       <c r="J17" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -3781,8 +3835,11 @@
       <c r="J18" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -3813,8 +3870,11 @@
       <c r="J19" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -3822,7 +3882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>52</v>
       </c>
@@ -3831,7 +3891,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>54</v>
       </c>
@@ -3839,7 +3899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>55</v>
       </c>
@@ -3847,7 +3907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>62</v>
       </c>
@@ -3855,7 +3915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>64</v>
       </c>
@@ -3863,7 +3923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -3871,7 +3931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>7</v>
       </c>
@@ -3879,7 +3939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -3887,7 +3947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>9</v>
       </c>
@@ -3895,7 +3955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>72</v>
       </c>
